--- a/csv/rf/rf_rawfda_final.xlsx
+++ b/csv/rf/rf_rawfda_final.xlsx
@@ -101,10 +101,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.06018518518518518</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03042903097250923</v>
+        <v>0.011340230290662862</v>
       </c>
     </row>
   </sheetData>
@@ -192,7 +192,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C4" t="n">
         <v>0.0</v>
@@ -204,7 +204,7 @@
         <v>0.0</v>
       </c>
       <c r="F4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -221,7 +221,7 @@
         <v>1.0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E5" t="n">
         <v>34.0</v>
@@ -230,7 +230,7 @@
         <v>0.0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
@@ -244,13 +244,13 @@
         <v>0.0</v>
       </c>
       <c r="D6" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E6" t="n">
         <v>1.0</v>
       </c>
       <c r="F6" t="n">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
       <c r="G6" t="n">
         <v>1.0</v>
